--- a/NLP/NLP_problem_Statement/Output Data Structure.xlsx
+++ b/NLP/NLP_problem_Statement/Output Data Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Programm\Project\NLP\NLP_problem_Statement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_28A2E50237ABCF894721FD2987ECD81A229AA4D4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F7AF4758-C692-45C8-B4B0-BD123065365E}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_28A2E50237ABCF894721FD2987ECD81A229AA4D4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{75D02D31-D61B-4E5F-A316-77A3D9BE2127}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,20 +104,34 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,16 +143,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -446,6 +463,69 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>13</v>
+      </c>
+      <c r="T4">
+        <v>14</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/NLP/NLP_problem_Statement/Output Data Structure.xlsx
+++ b/NLP/NLP_problem_Statement/Output Data Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Programm\Project\NLP\NLP_problem_Statement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_28A2E50237ABCF894721FD2987ECD81A229AA4D4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{75D02D31-D61B-4E5F-A316-77A3D9BE2127}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_28A2E50237ABCF894721FD2987ECD81A229AA4D4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94776A27-0777-4CAA-BE5D-06E2846C187F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CIK</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>constraining_words_whole_report</t>
+  </si>
+  <si>
+    <t>cons_wor_prop= []</t>
+  </si>
+  <si>
+    <t>constraning_words_whole_report=[]</t>
   </si>
 </sst>
 </file>
@@ -371,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -526,6 +532,16 @@
       </c>
       <c r="U4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
